--- a/RiskWISE_Import_Template_StorageTank.xlsx
+++ b/RiskWISE_Import_Template_StorageTank.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab411\RBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dat\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4065" yWindow="-30" windowWidth="19320" windowHeight="7995" tabRatio="687" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-4065" yWindow="-30" windowWidth="19320" windowHeight="7995" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="276">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -134,15 +134,6 @@
   </si>
   <si>
     <t>Tank</t>
-  </si>
-  <si>
-    <t>Tnakkkk</t>
-  </si>
-  <si>
-    <t>Hai Duong</t>
-  </si>
-  <si>
-    <t>thang</t>
   </si>
   <si>
     <t>Amine high velocity corrosion - Electrical resistance probes</t>
@@ -276,9 +267,6 @@
     <t>COURSE-2</t>
   </si>
   <si>
-    <t>thang1111</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -466,12 +454,6 @@
   </si>
   <si>
     <t>Reference Temperature</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>Low ≤ 0.01%</t>
   </si>
   <si>
     <t>347 Stainless Steel, Alloy 20, Alloy 625, All austenitic weld overlay</t>
@@ -1341,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1002"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,102 +1440,8 @@
       <c r="AI1" s="7"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="9">
-        <v>43760</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2">
-        <v>0.1</v>
-      </c>
-      <c r="O2">
-        <v>0.2</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>50</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2">
-        <v>60</v>
-      </c>
+      <c r="B2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -5629,7 +5517,7 @@
   <dimension ref="A1:AH1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5639,200 +5527,110 @@
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="AH1" s="11"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>43760</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0.7</v>
-      </c>
-      <c r="U2">
-        <v>0.8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>0.8</v>
-      </c>
-      <c r="AG2" t="b">
-        <v>0</v>
-      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
@@ -10901,7 +10699,7 @@
   <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10911,110 +10709,57 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>6</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
-      </c>
-      <c r="O2">
-        <v>8</v>
-      </c>
-      <c r="P2">
-        <v>9</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
     </row>
     <row r="1002" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11040,7 +10785,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="H2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11050,164 +10795,87 @@
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <v>70</v>
-      </c>
-      <c r="I2">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>90</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" t="s">
-        <v>125</v>
-      </c>
-      <c r="W2">
-        <v>20</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>40</v>
-      </c>
-      <c r="Z2">
-        <v>50</v>
-      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -14260,7 +13928,7 @@
   <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="L2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14271,110 +13939,57 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>90</v>
-      </c>
     </row>
     <row r="1002" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14420,7 +14035,7 @@
   <dimension ref="A1:Q1002"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14431,104 +14046,57 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
-        <v>43760</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>163</v>
-      </c>
-      <c r="P2" t="s">
-        <v>161</v>
-      </c>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J3" s="9"/>
@@ -17585,8 +17153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17596,44 +17164,24 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>45</v>
-      </c>
     </row>
     <row r="1002" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -17679,16 +17227,16 @@
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>12</v>
@@ -17706,49 +17254,49 @@
         <v>31</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -17759,70 +17307,70 @@
         <v>34</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="S3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+      <c r="W3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -17831,194 +17379,194 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="R4" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="K5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="N5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="T5" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="U5" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="V5" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="W5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="X5" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -18026,16 +17574,16 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -18044,23 +17592,23 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="W7" s="8"/>
       <c r="X7" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -18068,16 +17616,16 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -18086,23 +17634,23 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="W8" s="8"/>
       <c r="X8" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -18110,16 +17658,16 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -18131,16 +17679,16 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="W9" s="8"/>
       <c r="X9" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -18148,16 +17696,16 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -18169,14 +17717,14 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -18184,10 +17732,10 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -18203,7 +17751,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -18216,10 +17764,10 @@
       <c r="B12" s="14"/>
       <c r="C12" s="8"/>
       <c r="D12" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -18246,10 +17794,10 @@
       <c r="B13" s="14"/>
       <c r="C13" s="8"/>
       <c r="D13" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -18276,10 +17824,10 @@
       <c r="B14" s="14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -18306,10 +17854,10 @@
       <c r="B15" s="14"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -18337,7 +17885,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
       <c r="E16" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -18365,7 +17913,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="14"/>
       <c r="E17" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -18393,7 +17941,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="14"/>
       <c r="E18" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -18421,7 +17969,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="14"/>
       <c r="E19" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -18449,7 +17997,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="14"/>
       <c r="E20" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -18477,7 +18025,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="14"/>
       <c r="E21" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -18505,7 +18053,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="14"/>
       <c r="E22" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -18533,7 +18081,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="14"/>
       <c r="E23" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -18561,7 +18109,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="14"/>
       <c r="E24" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -18589,7 +18137,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="14"/>
       <c r="E25" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -18617,7 +18165,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="14"/>
       <c r="E26" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -18645,7 +18193,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="14"/>
       <c r="E27" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -18673,7 +18221,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="14"/>
       <c r="E28" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -18701,7 +18249,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -18729,7 +18277,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -18757,7 +18305,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -18785,7 +18333,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -18813,7 +18361,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -18841,7 +18389,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -18869,7 +18417,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -18897,7 +18445,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -18925,7 +18473,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -18953,7 +18501,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -18981,7 +18529,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -19009,7 +18557,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>

--- a/RiskWISE_Import_Template_StorageTank.xlsx
+++ b/RiskWISE_Import_Template_StorageTank.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4065" yWindow="-30" windowWidth="19320" windowHeight="7995" tabRatio="687"/>
+    <workbookView xWindow="-4065" yWindow="-30" windowWidth="19320" windowHeight="7995" tabRatio="687" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="276">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1440,9 @@
       <c r="AI1" s="7"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -5517,7 +5519,7 @@
   <dimension ref="A1:AH1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10699,7 +10701,7 @@
   <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10785,7 +10787,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:XFD2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13927,8 +13929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1002"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14034,8 +14036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1002"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17153,8 +17155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RiskWISE_Import_Template_StorageTank.xlsx
+++ b/RiskWISE_Import_Template_StorageTank.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4065" yWindow="-30" windowWidth="19320" windowHeight="7995" tabRatio="687" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-4065" yWindow="-30" windowWidth="19320" windowHeight="7995" tabRatio="687" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Lookup!$A$2:$C$16</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="276">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:AI1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1443,13 @@
       <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9">
+        <f ca="1">NOW()</f>
+        <v>44141.774771180557</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -5519,7 +5525,7 @@
   <dimension ref="A1:AH1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5632,7 +5638,10 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="12">
+        <f ca="1">NOW()</f>
+        <v>44141.774771180557</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
@@ -10701,7 +10710,7 @@
   <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10762,6 +10771,11 @@
         <v>93</v>
       </c>
       <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="1002" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -10786,8 +10800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10878,6 +10892,9 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
+      <c r="K2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -13930,7 +13947,7 @@
   <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13992,6 +14009,11 @@
         <v>137</v>
       </c>
       <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="1002" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14036,8 +14058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14098,6 +14120,12 @@
       <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -17155,8 +17183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17184,6 +17212,11 @@
         <v>162</v>
       </c>
       <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="1002" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/RiskWISE_Import_Template_StorageTank.xlsx
+++ b/RiskWISE_Import_Template_StorageTank.xlsx
@@ -884,7 +884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,6 +930,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -979,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1010,6 +1025,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,7 +1469,7 @@
       </c>
       <c r="H2" s="9">
         <f ca="1">NOW()</f>
-        <v>44141.774771180557</v>
+        <v>44142.578824652781</v>
       </c>
       <c r="O2">
         <v>11</v>
@@ -5640,7 +5664,7 @@
       <c r="D2" s="8"/>
       <c r="H2" s="12">
         <f ca="1">NOW()</f>
-        <v>44141.774771180557</v>
+        <v>44142.578824652781</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -14059,7 +14083,7 @@
   <dimension ref="A1:Q1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14119,14 +14143,29 @@
       </c>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" s="9">
+        <f ca="1">NOW()</f>
+        <v>44142.578824652781</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J3" s="9"/>
@@ -17136,42 +17175,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1001 E2:E1001 H2:I1001 L2:N1001</xm:sqref>
+          <xm:sqref>E3:E1001 H3:I1001 L3:N1001 B3:B1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$T$3:$T$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1001</xm:sqref>
+          <xm:sqref>G3:G1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$U$3:$U$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1001</xm:sqref>
+          <xm:sqref>K3:K1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$W$3:$W$5</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P1001</xm:sqref>
+          <xm:sqref>P3:P1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$S$3:$S$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1001</xm:sqref>
+          <xm:sqref>F3:F1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$V$3:$V$9</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1001</xm:sqref>
+          <xm:sqref>O3:O1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[RiskWISE_Import_Template_StorageTankBottom (2).xlsx]Lookup'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[RiskWISE_Import_Template_StorageTankBottom (2).xlsx]Lookup'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[RiskWISE_Import_Template_StorageTankBottom (2).xlsx]Lookup'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[RiskWISE_Import_Template_StorageTankBottom (2).xlsx]Lookup'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[RiskWISE_Import_Template_StorageTankBottom (2).xlsx]Lookup'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[RiskWISE_Import_Template_StorageTankBottom (2).xlsx]Lookup'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2 L2:N2 H2:I2 E2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
